--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lta</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H2">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N2">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q2">
-        <v>137.6305350682231</v>
+        <v>8.01592733275289</v>
       </c>
       <c r="R2">
-        <v>1238.674815614008</v>
+        <v>72.143345994776</v>
       </c>
       <c r="S2">
-        <v>0.4454729128883617</v>
+        <v>0.1680144961198305</v>
       </c>
       <c r="T2">
-        <v>0.4454729128883617</v>
+        <v>0.1680144961198305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H3">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q3">
-        <v>13.58456154280489</v>
+        <v>3.607459554794778</v>
       </c>
       <c r="R3">
-        <v>122.261053885244</v>
+        <v>32.467135993153</v>
       </c>
       <c r="S3">
-        <v>0.04396956095378668</v>
+        <v>0.07561264894393192</v>
       </c>
       <c r="T3">
-        <v>0.04396956095378668</v>
+        <v>0.07561264894393192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H4">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N4">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q4">
-        <v>5.255343559478667</v>
+        <v>1.047737538253556</v>
       </c>
       <c r="R4">
-        <v>47.298092035308</v>
+        <v>9.429637844282002</v>
       </c>
       <c r="S4">
-        <v>0.01701012934745599</v>
+        <v>0.02196066496713707</v>
       </c>
       <c r="T4">
-        <v>0.01701012934745599</v>
+        <v>0.02196066496713707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H5">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N5">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q5">
-        <v>152.4833280302418</v>
+        <v>33.05799305666311</v>
       </c>
       <c r="R5">
-        <v>1372.349952272176</v>
+        <v>297.521937509968</v>
       </c>
       <c r="S5">
-        <v>0.4935473968103956</v>
+        <v>0.69289825313831</v>
       </c>
       <c r="T5">
-        <v>0.4935473968103956</v>
+        <v>0.6928982531383099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.021628</v>
+      </c>
+      <c r="H6">
+        <v>0.064884</v>
+      </c>
+      <c r="I6">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J6">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16.05260533333333</v>
+      </c>
+      <c r="N6">
+        <v>48.157816</v>
+      </c>
+      <c r="O6">
+        <v>0.1752915379534001</v>
+      </c>
+      <c r="P6">
+        <v>0.1752915379534001</v>
+      </c>
+      <c r="Q6">
+        <v>0.3471857481493333</v>
+      </c>
+      <c r="R6">
+        <v>3.124671733344</v>
+      </c>
+      <c r="S6">
+        <v>0.007277041833569581</v>
+      </c>
+      <c r="T6">
+        <v>0.007277041833569582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.021628</v>
+      </c>
+      <c r="H7">
+        <v>0.064884</v>
+      </c>
+      <c r="I7">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J7">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.224257666666666</v>
+      </c>
+      <c r="N7">
+        <v>21.672773</v>
+      </c>
+      <c r="O7">
+        <v>0.07888758308485012</v>
+      </c>
+      <c r="P7">
+        <v>0.07888758308485012</v>
+      </c>
+      <c r="Q7">
+        <v>0.1562462448146666</v>
+      </c>
+      <c r="R7">
+        <v>1.406216203332</v>
+      </c>
+      <c r="S7">
+        <v>0.003274934140918212</v>
+      </c>
+      <c r="T7">
+        <v>0.003274934140918212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.021628</v>
+      </c>
+      <c r="H8">
+        <v>0.064884</v>
+      </c>
+      <c r="I8">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J8">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.098187333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.294562000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.02291182502385553</v>
+      </c>
+      <c r="P8">
+        <v>0.02291182502385553</v>
+      </c>
+      <c r="Q8">
+        <v>0.04537959564533334</v>
+      </c>
+      <c r="R8">
+        <v>0.408416360808</v>
+      </c>
+      <c r="S8">
+        <v>0.0009511600567184654</v>
+      </c>
+      <c r="T8">
+        <v>0.0009511600567184656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.021628</v>
+      </c>
+      <c r="H9">
+        <v>0.064884</v>
+      </c>
+      <c r="I9">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J9">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>66.20156266666667</v>
+      </c>
+      <c r="N9">
+        <v>198.604688</v>
+      </c>
+      <c r="O9">
+        <v>0.7229090539378943</v>
+      </c>
+      <c r="P9">
+        <v>0.7229090539378942</v>
+      </c>
+      <c r="Q9">
+        <v>1.431807397354667</v>
+      </c>
+      <c r="R9">
+        <v>12.886266576192</v>
+      </c>
+      <c r="S9">
+        <v>0.03001080079958433</v>
+      </c>
+      <c r="T9">
+        <v>0.03001080079958433</v>
       </c>
     </row>
   </sheetData>
